--- a/Template/LevelUp.xlsx
+++ b/Template/LevelUp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8831377-8805-4B13-8149-6453A79200BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAF5AAC-F67A-4231-9F89-CE5A7DD62E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="28800" windowHeight="16890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +44,6 @@
   </si>
   <si>
     <t>Int32</t>
-  </si>
-  <si>
-    <t>StringId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
@@ -393,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -404,16 +400,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -867,7 +863,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -886,7 +882,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -895,12 +891,12 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -914,7 +910,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1</v>
